--- a/mc/indicators/xl/gov_revenue.xlsx
+++ b/mc/indicators/xl/gov_revenue.xlsx
@@ -8526,88 +8526,88 @@
         <v>91</v>
       </c>
       <c r="G19" s="1">
-        <v>38.6</v>
+        <v>37.4</v>
       </c>
       <c r="H19" s="1">
-        <v>39.3</v>
+        <v>37.9</v>
       </c>
       <c r="I19" s="1">
-        <v>39.4</v>
+        <v>38</v>
       </c>
       <c r="J19" s="1">
-        <v>39.5</v>
+        <v>38.3</v>
       </c>
       <c r="K19" s="1">
-        <v>39.5</v>
+        <v>38.2</v>
       </c>
       <c r="L19" s="1">
-        <v>38.6</v>
+        <v>37.5</v>
       </c>
       <c r="M19" s="1">
+        <v>35.3</v>
+      </c>
+      <c r="N19" s="1">
+        <v>34.2</v>
+      </c>
+      <c r="O19" s="1">
+        <v>34.3</v>
+      </c>
+      <c r="P19" s="1">
+        <v>34.5</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>35.3</v>
+      </c>
+      <c r="R19" s="1">
         <v>36.1</v>
       </c>
-      <c r="N19" s="1">
-        <v>34.9</v>
-      </c>
-      <c r="O19" s="1">
-        <v>35</v>
-      </c>
-      <c r="P19" s="1">
-        <v>35.2</v>
-      </c>
-      <c r="Q19" s="1">
-        <v>36.1</v>
-      </c>
-      <c r="R19" s="1">
-        <v>36.9</v>
-      </c>
       <c r="S19" s="1">
-        <v>37.3</v>
+        <v>36.5</v>
       </c>
       <c r="T19" s="1">
-        <v>36.9</v>
+        <v>36.2</v>
       </c>
       <c r="U19" s="1">
-        <v>35.5</v>
+        <v>34.8</v>
       </c>
       <c r="V19" s="1">
-        <v>35.5</v>
+        <v>34.7</v>
       </c>
       <c r="W19" s="1">
-        <v>36.1</v>
+        <v>35.3</v>
       </c>
       <c r="X19" s="1">
+        <v>35.4</v>
+      </c>
+      <c r="Y19" s="1">
+        <v>36.7</v>
+      </c>
+      <c r="Z19" s="1">
+        <v>36.6</v>
+      </c>
+      <c r="AA19" s="1">
         <v>36.2</v>
       </c>
-      <c r="Y19" s="1">
-        <v>37.6</v>
-      </c>
-      <c r="Z19" s="1">
-        <v>37.6</v>
-      </c>
-      <c r="AA19" s="1">
-        <v>37.2</v>
-      </c>
       <c r="AB19" s="1">
-        <v>36.9</v>
+        <v>35.9</v>
       </c>
       <c r="AC19" s="1">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AD19" s="1">
-        <v>37.2</v>
+        <v>36.2</v>
       </c>
       <c r="AE19" s="1">
-        <v>37.3</v>
+        <v>36.3</v>
       </c>
       <c r="AF19" s="1">
-        <v>37.4</v>
+        <v>36.4</v>
       </c>
       <c r="AG19" s="1">
-        <v>37.4</v>
+        <v>36.4</v>
       </c>
       <c r="AH19" s="1">
-        <v>37.4</v>
+        <v>36.4</v>
       </c>
     </row>
     <row r="20" spans="1:34">
